--- a/Stocks_financials/DE.xlsx
+++ b/Stocks_financials/DE.xlsx
@@ -632,7 +632,7 @@
     <t>Deere &amp; Company (DE)</t>
   </si>
   <si>
-    <t>$411.08</t>
+    <t>$406.04</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ac2e1d3-48a7-4c94-8317-7f20e2250e2f}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1db61cb5-82b0-4e21-85d8-16ca72577a8b}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
